--- a/市場_2025改修/ソース/seikyu_suidou_yyyy.xlsx
+++ b/市場_2025改修/ソース/seikyu_suidou_yyyy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\99_ETC\01_サントク\03_姫路市市場\20_ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFBB09-8AE6-4013-B357-38C69A9FB521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D876AC-FAE6-410D-8662-136371C75A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{48035586-80ED-49A4-9948-73FC94601F65}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>納付書番号</t>
   </si>
@@ -309,10 +309,27 @@
     <t>河野運送㈱</t>
   </si>
   <si>
-    <t>日割り</t>
+    <t>備考</t>
     <rPh sb="0" eb="2">
-      <t>ヒワ</t>
+      <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調定金額</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -721,6 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02B3287-84A0-4562-95F2-40C74F7A338F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -734,15 +752,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472DF5EF-8A7D-4790-92C3-111F777BA530}">
-  <dimension ref="A1:AC86"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AE86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="AC1" sqref="AC1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,10 +847,16 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="AE1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -881,7 +906,7 @@
         <v>-18847</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -916,7 +941,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -951,7 +976,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -986,7 +1011,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1021,7 +1046,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1071,7 +1096,7 @@
         <v>-14484</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1106,7 +1131,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1141,7 +1166,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1176,7 +1201,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1261,7 +1286,7 @@
         <v>-14484</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1296,7 +1321,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1331,7 +1356,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1366,7 +1391,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
